--- a/testing/test-sheet.xlsx
+++ b/testing/test-sheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kong Teck Mee\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eLearning\Code Institute\FSSD\MS2\testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="204" documentId="8_{CAC0445C-2A40-40DE-A20F-F66B743CAA17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{22DDE0C7-A3B1-488B-8747-F17B97B6379B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B8FC3C-AACD-4B61-8007-481A5E475240}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{8F8C3BFA-98AB-41E7-9342-381B8FF01506}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="33">
   <si>
     <t>VALIDATION</t>
   </si>
@@ -66,6 +66,194 @@
   </si>
   <si>
     <t>https://jshint.com/</t>
+  </si>
+  <si>
+    <t>BROWSER COMPATIBILITY</t>
+  </si>
+  <si>
+    <t>Layout</t>
+  </si>
+  <si>
+    <t>Responsiveness</t>
+  </si>
+  <si>
+    <t>CHROME</t>
+  </si>
+  <si>
+    <t>FIREFOX</t>
+  </si>
+  <si>
+    <t>IE</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>RESPONSIVENESS ON DIFFERENT SCREEN SIZE</t>
+  </si>
+  <si>
+    <t>Rendering</t>
+  </si>
+  <si>
+    <t>Links</t>
+  </si>
+  <si>
+    <t>Images</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IPHONE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 6/7/8
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>375px</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IPAD MINI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>768px</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GALAXY S5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>360px</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LAPTOP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt; 1024px</t>
+    </r>
+  </si>
+  <si>
+    <t>LANG</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>The Google Map sometimes cannot be loaded in IE.</t>
+  </si>
+  <si>
+    <t>Poor</t>
   </si>
   <si>
     <r>
@@ -162,44 +350,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>**Not too sure the reasons on these 2 becoming undefined variables as not affecting the responsiveness on user's action.</t>
-    </r>
-  </si>
-  <si>
-    <t>BROWSER COMPATIBILITY</t>
-  </si>
-  <si>
-    <t>Layout</t>
-  </si>
-  <si>
-    <t>Responsiveness</t>
-  </si>
-  <si>
-    <t>CHROME</t>
-  </si>
-  <si>
-    <t>FIREFOX</t>
-  </si>
-  <si>
-    <t>IE</t>
-  </si>
-  <si>
-    <t>Good</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>RESPONSIVENESS ON DIFFERENT SCREEN SIZE</t>
-  </si>
-  <si>
-    <t>Rendering</t>
-  </si>
-  <si>
-    <t>Links</t>
-  </si>
-  <si>
-    <t>Images</t>
+      <t>**Not too sure the reasons on these 2 becoming undefined variables. The Google Map cannot be loaded when there is the undefined variable on 'google' found at console.</t>
+    </r>
   </si>
   <si>
     <r>
@@ -211,152 +363,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>IPHONE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 6/7/8
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>375px</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>IPAD MINI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>768px</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>GALAXY S5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>360px</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>LAPTOP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&gt; 1024px</t>
-    </r>
-  </si>
-  <si>
-    <t>LANG</t>
-  </si>
-  <si>
-    <t>TEST</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Chrome DevTools</t>
     </r>
     <r>
@@ -367,28 +373,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> is used to test on the responsiveness to different screen size. The design of this site only for </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>portrait view</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.
+      <t xml:space="preserve"> is used to test on the responsiveness to different screen size. 
 In this testing, the </t>
     </r>
     <r>
@@ -505,7 +490,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -521,6 +506,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -553,7 +544,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -582,12 +573,24 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -597,17 +600,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -926,8 +923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C9A2F70-EC28-4AEB-858B-92ABED5350C5}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -939,25 +936,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.45">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
       <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
@@ -966,12 +963,12 @@
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
       <c r="F3" s="6" t="s">
         <v>9</v>
       </c>
@@ -980,119 +977,119 @@
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
       <c r="F4" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="142.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" ht="156.75" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
       <c r="F5" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+      <c r="A6" s="11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.45">
-      <c r="A6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
     </row>
     <row r="7" spans="1:6" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.45">
-      <c r="A7" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="16"/>
+      <c r="A7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="13"/>
       <c r="C7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+      <c r="A10" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.45">
-      <c r="A10" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>27</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>5</v>
@@ -1100,91 +1097,91 @@
     </row>
     <row r="12" spans="1:6" ht="40.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>30</v>
+        <v>17</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="40.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="15"/>
+        <v>17</v>
+      </c>
+      <c r="F13" s="10"/>
     </row>
     <row r="14" spans="1:6" ht="40.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="15"/>
+        <v>17</v>
+      </c>
+      <c r="F14" s="10"/>
     </row>
     <row r="15" spans="1:6" ht="40.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="15"/>
+        <v>17</v>
+      </c>
+      <c r="F15" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1" xr:uid="{915AB648-A305-4CBB-B8C2-1954393DF323}"/>
